--- a/1 NHI impact/output/sfig_6_did_poverty.xlsx
+++ b/1 NHI impact/output/sfig_6_did_poverty.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,17 +420,32 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>baseline</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>oval.change</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>oval.conf.low</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>oval.conf.high</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>outcome2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>pctchange</t>
         </is>
       </c>
     </row>
@@ -468,24 +483,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J2">
-        <v>47.67119954128913</v>
-      </c>
-      <c r="K2">
-        <v>4.610244439937334</v>
-      </c>
       <c r="L2">
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M2">
-        <v>38.63528647908592</v>
+        <v>69.19748663297621</v>
       </c>
       <c r="N2">
-        <v>56.70711260349233</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -523,24 +532,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J3">
-        <v>47.67119954128913</v>
-      </c>
-      <c r="K3">
-        <v>4.610244439937334</v>
-      </c>
       <c r="L3">
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M3">
-        <v>38.63528647908592</v>
+        <v>69.19748663297621</v>
       </c>
       <c r="N3">
-        <v>56.70711260349233</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -578,24 +581,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J4">
-        <v>47.67119954128913</v>
-      </c>
-      <c r="K4">
-        <v>4.610244439937334</v>
-      </c>
       <c r="L4">
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M4">
-        <v>38.63528647908592</v>
+        <v>69.19748663297621</v>
       </c>
       <c r="N4">
-        <v>56.70711260349233</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -633,24 +630,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J5">
-        <v>47.67119954128913</v>
-      </c>
-      <c r="K5">
-        <v>4.610244439937334</v>
-      </c>
       <c r="L5">
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M5">
-        <v>38.63528647908592</v>
+        <v>69.19748663297621</v>
       </c>
       <c r="N5">
-        <v>56.70711260349233</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -688,24 +679,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J6">
-        <v>47.67119954128913</v>
-      </c>
-      <c r="K6">
-        <v>4.610244439937334</v>
-      </c>
       <c r="L6">
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M6">
-        <v>38.63528647908592</v>
+        <v>69.19748663297621</v>
       </c>
       <c r="N6">
-        <v>56.70711260349233</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -743,24 +728,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J7">
-        <v>47.67119954128913</v>
-      </c>
-      <c r="K7">
-        <v>4.610244439937334</v>
-      </c>
       <c r="L7">
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M7">
-        <v>38.63528647908592</v>
+        <v>69.19748663297621</v>
       </c>
       <c r="N7">
-        <v>56.70711260349233</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -808,14 +787,25 @@
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M8">
+        <v>69.19748663297621</v>
+      </c>
+      <c r="N8">
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="O8">
         <v>38.63528647908592</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>56.70711260349233</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>68.9%</t>
         </is>
       </c>
     </row>
@@ -863,14 +853,20 @@
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M9">
+        <v>69.19748663297621</v>
+      </c>
+      <c r="N9">
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="O9">
         <v>38.63528647908592</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>56.70711260349233</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -918,14 +914,20 @@
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M10">
+        <v>69.19748663297621</v>
+      </c>
+      <c r="N10">
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="O10">
         <v>38.63528647908592</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>56.70711260349233</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -973,14 +975,20 @@
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M11">
+        <v>69.19748663297621</v>
+      </c>
+      <c r="N11">
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="O11">
         <v>38.63528647908592</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>56.70711260349233</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1028,14 +1036,20 @@
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M12">
+        <v>69.19748663297621</v>
+      </c>
+      <c r="N12">
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="O12">
         <v>38.63528647908592</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>56.70711260349233</v>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1070,24 +1084,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J13">
-        <v>47.67119954128913</v>
-      </c>
-      <c r="K13">
-        <v>4.610244439937334</v>
-      </c>
       <c r="L13">
         <v>6.162119261128654E-08</v>
       </c>
       <c r="M13">
-        <v>38.63528647908592</v>
+        <v>69.19748663297621</v>
       </c>
       <c r="N13">
-        <v>56.70711260349233</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.6889151884104894</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1133,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J14">
-        <v>125.8692583295477</v>
-      </c>
-      <c r="K14">
-        <v>18.5960086704296</v>
-      </c>
       <c r="L14">
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M14">
-        <v>89.42175107931112</v>
+        <v>253.7170407207804</v>
       </c>
       <c r="N14">
-        <v>162.3167655797843</v>
-      </c>
-      <c r="O14" t="inlineStr">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1180,22 +1182,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J15">
-        <v>125.8692583295477</v>
-      </c>
-      <c r="K15">
-        <v>18.5960086704296</v>
-      </c>
       <c r="L15">
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M15">
-        <v>89.42175107931112</v>
+        <v>253.7170407207804</v>
       </c>
       <c r="N15">
-        <v>162.3167655797843</v>
-      </c>
-      <c r="O15" t="inlineStr">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1235,22 +1231,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J16">
-        <v>125.8692583295477</v>
-      </c>
-      <c r="K16">
-        <v>18.5960086704296</v>
-      </c>
       <c r="L16">
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M16">
-        <v>89.42175107931112</v>
+        <v>253.7170407207804</v>
       </c>
       <c r="N16">
-        <v>162.3167655797843</v>
-      </c>
-      <c r="O16" t="inlineStr">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1290,22 +1280,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J17">
-        <v>125.8692583295477</v>
-      </c>
-      <c r="K17">
-        <v>18.5960086704296</v>
-      </c>
       <c r="L17">
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M17">
-        <v>89.42175107931112</v>
+        <v>253.7170407207804</v>
       </c>
       <c r="N17">
-        <v>162.3167655797843</v>
-      </c>
-      <c r="O17" t="inlineStr">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1345,22 +1329,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J18">
-        <v>125.8692583295477</v>
-      </c>
-      <c r="K18">
-        <v>18.5960086704296</v>
-      </c>
       <c r="L18">
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M18">
-        <v>89.42175107931112</v>
+        <v>253.7170407207804</v>
       </c>
       <c r="N18">
-        <v>162.3167655797843</v>
-      </c>
-      <c r="O18" t="inlineStr">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1400,22 +1378,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J19">
-        <v>125.8692583295477</v>
-      </c>
-      <c r="K19">
-        <v>18.5960086704296</v>
-      </c>
       <c r="L19">
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M19">
-        <v>89.42175107931112</v>
+        <v>253.7170407207804</v>
       </c>
       <c r="N19">
-        <v>162.3167655797843</v>
-      </c>
-      <c r="O19" t="inlineStr">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1465,14 +1437,25 @@
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M20">
+        <v>253.7170407207804</v>
+      </c>
+      <c r="N20">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="O20">
         <v>89.42175107931112</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>162.3167655797843</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>49.6%</t>
         </is>
       </c>
     </row>
@@ -1520,12 +1503,18 @@
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M21">
+        <v>253.7170407207804</v>
+      </c>
+      <c r="N21">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="O21">
         <v>89.42175107931112</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>162.3167655797843</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1575,12 +1564,18 @@
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M22">
+        <v>253.7170407207804</v>
+      </c>
+      <c r="N22">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="O22">
         <v>89.42175107931112</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>162.3167655797843</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1630,12 +1625,18 @@
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M23">
+        <v>253.7170407207804</v>
+      </c>
+      <c r="N23">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="O23">
         <v>89.42175107931112</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>162.3167655797843</v>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1685,12 +1686,18 @@
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M24">
+        <v>253.7170407207804</v>
+      </c>
+      <c r="N24">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="O24">
         <v>89.42175107931112</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>162.3167655797843</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1727,22 +1734,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J25">
-        <v>125.8692583295477</v>
-      </c>
-      <c r="K25">
-        <v>18.5960086704296</v>
-      </c>
       <c r="L25">
         <v>9.043209635058535E-06</v>
       </c>
       <c r="M25">
-        <v>89.42175107931112</v>
+        <v>253.7170407207804</v>
       </c>
       <c r="N25">
-        <v>162.3167655797843</v>
-      </c>
-      <c r="O25" t="inlineStr">
+        <v>0.4961009239740771</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -1782,24 +1783,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J26">
-        <v>204.4633024438247</v>
-      </c>
-      <c r="K26">
-        <v>75.26980129859646</v>
-      </c>
       <c r="L26">
         <v>0.01671081685283717</v>
       </c>
       <c r="M26">
-        <v>56.93720277508947</v>
+        <v>1063.886357800567</v>
       </c>
       <c r="N26">
-        <v>351.9894021125599</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.192185284588594</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1837,24 +1832,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J27">
-        <v>204.4633024438247</v>
-      </c>
-      <c r="K27">
-        <v>75.26980129859646</v>
-      </c>
       <c r="L27">
         <v>0.01671081685283717</v>
       </c>
       <c r="M27">
-        <v>56.93720277508947</v>
+        <v>1063.886357800567</v>
       </c>
       <c r="N27">
-        <v>351.9894021125599</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.192185284588594</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1892,24 +1881,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J28">
-        <v>204.4633024438247</v>
-      </c>
-      <c r="K28">
-        <v>75.26980129859646</v>
-      </c>
       <c r="L28">
         <v>0.01671081685283717</v>
       </c>
       <c r="M28">
-        <v>56.93720277508947</v>
+        <v>1063.886357800567</v>
       </c>
       <c r="N28">
-        <v>351.9894021125599</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.192185284588594</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -1947,24 +1930,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J29">
-        <v>204.4633024438247</v>
-      </c>
-      <c r="K29">
-        <v>75.26980129859646</v>
-      </c>
       <c r="L29">
         <v>0.01671081685283717</v>
       </c>
       <c r="M29">
-        <v>56.93720277508947</v>
+        <v>1063.886357800567</v>
       </c>
       <c r="N29">
-        <v>351.9894021125599</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.192185284588594</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2002,24 +1979,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J30">
-        <v>204.4633024438247</v>
-      </c>
-      <c r="K30">
-        <v>75.26980129859646</v>
-      </c>
       <c r="L30">
         <v>0.01671081685283717</v>
       </c>
       <c r="M30">
-        <v>56.93720277508947</v>
+        <v>1063.886357800567</v>
       </c>
       <c r="N30">
-        <v>351.9894021125599</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.192185284588594</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2057,24 +2028,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J31">
-        <v>204.4633024438247</v>
-      </c>
-      <c r="K31">
-        <v>75.26980129859646</v>
-      </c>
       <c r="L31">
         <v>0.01671081685283717</v>
       </c>
       <c r="M31">
-        <v>56.93720277508947</v>
+        <v>1063.886357800567</v>
       </c>
       <c r="N31">
-        <v>351.9894021125599</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.192185284588594</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2122,14 +2087,25 @@
         <v>0.01671081685283717</v>
       </c>
       <c r="M32">
+        <v>1063.886357800567</v>
+      </c>
+      <c r="N32">
+        <v>0.192185284588594</v>
+      </c>
+      <c r="O32">
         <v>56.93720277508947</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>351.9894021125599</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>19.2%</t>
         </is>
       </c>
     </row>
@@ -2177,14 +2153,20 @@
         <v>0.01671081685283717</v>
       </c>
       <c r="M33">
+        <v>1063.886357800567</v>
+      </c>
+      <c r="N33">
+        <v>0.192185284588594</v>
+      </c>
+      <c r="O33">
         <v>56.93720277508947</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>351.9894021125599</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2232,14 +2214,20 @@
         <v>0.01671081685283717</v>
       </c>
       <c r="M34">
+        <v>1063.886357800567</v>
+      </c>
+      <c r="N34">
+        <v>0.192185284588594</v>
+      </c>
+      <c r="O34">
         <v>56.93720277508947</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>351.9894021125599</v>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2287,14 +2275,20 @@
         <v>0.01671081685283717</v>
       </c>
       <c r="M35">
+        <v>1063.886357800567</v>
+      </c>
+      <c r="N35">
+        <v>0.192185284588594</v>
+      </c>
+      <c r="O35">
         <v>56.93720277508947</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>351.9894021125599</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2342,14 +2336,20 @@
         <v>0.01671081685283717</v>
       </c>
       <c r="M36">
+        <v>1063.886357800567</v>
+      </c>
+      <c r="N36">
+        <v>0.192185284588594</v>
+      </c>
+      <c r="O36">
         <v>56.93720277508947</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>351.9894021125599</v>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2384,24 +2384,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J37">
-        <v>204.4633024438247</v>
-      </c>
-      <c r="K37">
-        <v>75.26980129859646</v>
-      </c>
       <c r="L37">
         <v>0.01671081685283717</v>
       </c>
       <c r="M37">
-        <v>56.93720277508947</v>
+        <v>1063.886357800567</v>
       </c>
       <c r="N37">
-        <v>351.9894021125599</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.192185284588594</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -2439,22 +2433,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J38">
-        <v>296.5102282974053</v>
-      </c>
-      <c r="K38">
-        <v>211.2892968517121</v>
-      </c>
       <c r="L38">
         <v>0.1823055835411378</v>
       </c>
       <c r="M38">
-        <v>-117.6091838507425</v>
+        <v>3026.252958482449</v>
       </c>
       <c r="N38">
-        <v>710.629640445553</v>
-      </c>
-      <c r="O38" t="inlineStr">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2494,22 +2482,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J39">
-        <v>296.5102282974053</v>
-      </c>
-      <c r="K39">
-        <v>211.2892968517121</v>
-      </c>
       <c r="L39">
         <v>0.1823055835411378</v>
       </c>
       <c r="M39">
-        <v>-117.6091838507425</v>
+        <v>3026.252958482449</v>
       </c>
       <c r="N39">
-        <v>710.629640445553</v>
-      </c>
-      <c r="O39" t="inlineStr">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2549,22 +2531,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J40">
-        <v>296.5102282974053</v>
-      </c>
-      <c r="K40">
-        <v>211.2892968517121</v>
-      </c>
       <c r="L40">
         <v>0.1823055835411378</v>
       </c>
       <c r="M40">
-        <v>-117.6091838507425</v>
+        <v>3026.252958482449</v>
       </c>
       <c r="N40">
-        <v>710.629640445553</v>
-      </c>
-      <c r="O40" t="inlineStr">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2604,22 +2580,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J41">
-        <v>296.5102282974053</v>
-      </c>
-      <c r="K41">
-        <v>211.2892968517121</v>
-      </c>
       <c r="L41">
         <v>0.1823055835411378</v>
       </c>
       <c r="M41">
-        <v>-117.6091838507425</v>
+        <v>3026.252958482449</v>
       </c>
       <c r="N41">
-        <v>710.629640445553</v>
-      </c>
-      <c r="O41" t="inlineStr">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2659,22 +2629,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J42">
-        <v>296.5102282974053</v>
-      </c>
-      <c r="K42">
-        <v>211.2892968517121</v>
-      </c>
       <c r="L42">
         <v>0.1823055835411378</v>
       </c>
       <c r="M42">
-        <v>-117.6091838507425</v>
+        <v>3026.252958482449</v>
       </c>
       <c r="N42">
-        <v>710.629640445553</v>
-      </c>
-      <c r="O42" t="inlineStr">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2714,22 +2678,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J43">
-        <v>296.5102282974053</v>
-      </c>
-      <c r="K43">
-        <v>211.2892968517121</v>
-      </c>
       <c r="L43">
         <v>0.1823055835411378</v>
       </c>
       <c r="M43">
-        <v>-117.6091838507425</v>
+        <v>3026.252958482449</v>
       </c>
       <c r="N43">
-        <v>710.629640445553</v>
-      </c>
-      <c r="O43" t="inlineStr">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2779,14 +2737,25 @@
         <v>0.1823055835411378</v>
       </c>
       <c r="M44">
+        <v>3026.252958482449</v>
+      </c>
+      <c r="N44">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="O44">
         <v>-117.6091838507425</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>710.629640445553</v>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>9.8%</t>
         </is>
       </c>
     </row>
@@ -2834,12 +2803,18 @@
         <v>0.1823055835411378</v>
       </c>
       <c r="M45">
+        <v>3026.252958482449</v>
+      </c>
+      <c r="N45">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="O45">
         <v>-117.6091838507425</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>710.629640445553</v>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2889,12 +2864,18 @@
         <v>0.1823055835411378</v>
       </c>
       <c r="M46">
+        <v>3026.252958482449</v>
+      </c>
+      <c r="N46">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="O46">
         <v>-117.6091838507425</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>710.629640445553</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2944,12 +2925,18 @@
         <v>0.1823055835411378</v>
       </c>
       <c r="M47">
+        <v>3026.252958482449</v>
+      </c>
+      <c r="N47">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="O47">
         <v>-117.6091838507425</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>710.629640445553</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -2999,12 +2986,18 @@
         <v>0.1823055835411378</v>
       </c>
       <c r="M48">
+        <v>3026.252958482449</v>
+      </c>
+      <c r="N48">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="O48">
         <v>-117.6091838507425</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>710.629640445553</v>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -3041,22 +3034,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J49">
-        <v>296.5102282974053</v>
-      </c>
-      <c r="K49">
-        <v>211.2892968517121</v>
-      </c>
       <c r="L49">
         <v>0.1823055835411378</v>
       </c>
       <c r="M49">
-        <v>-117.6091838507425</v>
+        <v>3026.252958482449</v>
       </c>
       <c r="N49">
-        <v>710.629640445553</v>
-      </c>
-      <c r="O49" t="inlineStr">
+        <v>0.09797932703090818</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -3096,22 +3083,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J50">
-        <v>0.0121801583287819</v>
-      </c>
-      <c r="K50">
-        <v>0.05061451880724086</v>
-      </c>
       <c r="L50">
         <v>0.8133181377350572</v>
       </c>
       <c r="M50">
-        <v>-0.08702247562823538</v>
+        <v>2.422112937047377</v>
       </c>
       <c r="N50">
-        <v>0.1113827922857992</v>
-      </c>
-      <c r="O50" t="inlineStr">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3151,22 +3132,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J51">
-        <v>0.0121801583287819</v>
-      </c>
-      <c r="K51">
-        <v>0.05061451880724086</v>
-      </c>
       <c r="L51">
         <v>0.8133181377350572</v>
       </c>
       <c r="M51">
-        <v>-0.08702247562823538</v>
+        <v>2.422112937047377</v>
       </c>
       <c r="N51">
-        <v>0.1113827922857992</v>
-      </c>
-      <c r="O51" t="inlineStr">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3206,22 +3181,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J52">
-        <v>0.0121801583287819</v>
-      </c>
-      <c r="K52">
-        <v>0.05061451880724086</v>
-      </c>
       <c r="L52">
         <v>0.8133181377350572</v>
       </c>
       <c r="M52">
-        <v>-0.08702247562823538</v>
+        <v>2.422112937047377</v>
       </c>
       <c r="N52">
-        <v>0.1113827922857992</v>
-      </c>
-      <c r="O52" t="inlineStr">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3261,22 +3230,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J53">
-        <v>0.0121801583287819</v>
-      </c>
-      <c r="K53">
-        <v>0.05061451880724086</v>
-      </c>
       <c r="L53">
         <v>0.8133181377350572</v>
       </c>
       <c r="M53">
-        <v>-0.08702247562823538</v>
+        <v>2.422112937047377</v>
       </c>
       <c r="N53">
-        <v>0.1113827922857992</v>
-      </c>
-      <c r="O53" t="inlineStr">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3316,22 +3279,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J54">
-        <v>0.0121801583287819</v>
-      </c>
-      <c r="K54">
-        <v>0.05061451880724086</v>
-      </c>
       <c r="L54">
         <v>0.8133181377350572</v>
       </c>
       <c r="M54">
-        <v>-0.08702247562823538</v>
+        <v>2.422112937047377</v>
       </c>
       <c r="N54">
-        <v>0.1113827922857992</v>
-      </c>
-      <c r="O54" t="inlineStr">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3371,22 +3328,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J55">
-        <v>0.0121801583287819</v>
-      </c>
-      <c r="K55">
-        <v>0.05061451880724086</v>
-      </c>
       <c r="L55">
         <v>0.8133181377350572</v>
       </c>
       <c r="M55">
-        <v>-0.08702247562823538</v>
+        <v>2.422112937047377</v>
       </c>
       <c r="N55">
-        <v>0.1113827922857992</v>
-      </c>
-      <c r="O55" t="inlineStr">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3436,14 +3387,25 @@
         <v>0.8133181377350572</v>
       </c>
       <c r="M56">
+        <v>2.422112937047377</v>
+      </c>
+      <c r="N56">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="O56">
         <v>-0.08702247562823538</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>0.1113827922857992</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>0.5%</t>
         </is>
       </c>
     </row>
@@ -3491,12 +3453,18 @@
         <v>0.8133181377350572</v>
       </c>
       <c r="M57">
+        <v>2.422112937047377</v>
+      </c>
+      <c r="N57">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="O57">
         <v>-0.08702247562823538</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>0.1113827922857992</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3546,12 +3514,18 @@
         <v>0.8133181377350572</v>
       </c>
       <c r="M58">
+        <v>2.422112937047377</v>
+      </c>
+      <c r="N58">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="O58">
         <v>-0.08702247562823538</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>0.1113827922857992</v>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3601,12 +3575,18 @@
         <v>0.8133181377350572</v>
       </c>
       <c r="M59">
+        <v>2.422112937047377</v>
+      </c>
+      <c r="N59">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="O59">
         <v>-0.08702247562823538</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>0.1113827922857992</v>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3656,12 +3636,18 @@
         <v>0.8133181377350572</v>
       </c>
       <c r="M60">
+        <v>2.422112937047377</v>
+      </c>
+      <c r="N60">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="O60">
         <v>-0.08702247562823538</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>0.1113827922857992</v>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3698,22 +3684,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J61">
-        <v>0.0121801583287819</v>
-      </c>
-      <c r="K61">
-        <v>0.05061451880724086</v>
-      </c>
       <c r="L61">
         <v>0.8133181377350572</v>
       </c>
       <c r="M61">
-        <v>-0.08702247562823538</v>
+        <v>2.422112937047377</v>
       </c>
       <c r="N61">
-        <v>0.1113827922857992</v>
-      </c>
-      <c r="O61" t="inlineStr">
+        <v>0.005028732617080132</v>
+      </c>
+      <c r="Q61" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -3753,22 +3733,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J62">
-        <v>-0.003239615130928513</v>
-      </c>
-      <c r="K62">
-        <v>0.002658184836699952</v>
-      </c>
       <c r="L62">
         <v>0.2430844174283033</v>
       </c>
       <c r="M62">
-        <v>-0.008449561675110902</v>
+        <v>0.1162693052821844</v>
       </c>
       <c r="N62">
-        <v>0.001970331413253876</v>
-      </c>
-      <c r="O62" t="inlineStr">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="Q62" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -3808,22 +3782,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J63">
-        <v>-0.003239615130928513</v>
-      </c>
-      <c r="K63">
-        <v>0.002658184836699952</v>
-      </c>
       <c r="L63">
         <v>0.2430844174283033</v>
       </c>
       <c r="M63">
-        <v>-0.008449561675110902</v>
+        <v>0.1162693052821844</v>
       </c>
       <c r="N63">
-        <v>0.001970331413253876</v>
-      </c>
-      <c r="O63" t="inlineStr">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -3863,22 +3831,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J64">
-        <v>-0.003239615130928513</v>
-      </c>
-      <c r="K64">
-        <v>0.002658184836699952</v>
-      </c>
       <c r="L64">
         <v>0.2430844174283033</v>
       </c>
       <c r="M64">
-        <v>-0.008449561675110902</v>
+        <v>0.1162693052821844</v>
       </c>
       <c r="N64">
-        <v>0.001970331413253876</v>
-      </c>
-      <c r="O64" t="inlineStr">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="Q64" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -3918,22 +3880,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J65">
-        <v>-0.003239615130928513</v>
-      </c>
-      <c r="K65">
-        <v>0.002658184836699952</v>
-      </c>
       <c r="L65">
         <v>0.2430844174283033</v>
       </c>
       <c r="M65">
-        <v>-0.008449561675110902</v>
+        <v>0.1162693052821844</v>
       </c>
       <c r="N65">
-        <v>0.001970331413253876</v>
-      </c>
-      <c r="O65" t="inlineStr">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="Q65" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -3973,22 +3929,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J66">
-        <v>-0.003239615130928513</v>
-      </c>
-      <c r="K66">
-        <v>0.002658184836699952</v>
-      </c>
       <c r="L66">
         <v>0.2430844174283033</v>
       </c>
       <c r="M66">
-        <v>-0.008449561675110902</v>
+        <v>0.1162693052821844</v>
       </c>
       <c r="N66">
-        <v>0.001970331413253876</v>
-      </c>
-      <c r="O66" t="inlineStr">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -4028,22 +3978,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J67">
-        <v>-0.003239615130928513</v>
-      </c>
-      <c r="K67">
-        <v>0.002658184836699952</v>
-      </c>
       <c r="L67">
         <v>0.2430844174283033</v>
       </c>
       <c r="M67">
-        <v>-0.008449561675110902</v>
+        <v>0.1162693052821844</v>
       </c>
       <c r="N67">
-        <v>0.001970331413253876</v>
-      </c>
-      <c r="O67" t="inlineStr">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="Q67" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -4093,14 +4037,25 @@
         <v>0.2430844174283033</v>
       </c>
       <c r="M68">
+        <v>0.1162693052821844</v>
+      </c>
+      <c r="N68">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="O68">
         <v>-0.008449561675110902</v>
       </c>
-      <c r="N68">
+      <c r="P68">
         <v>0.001970331413253876</v>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
         </is>
       </c>
     </row>
@@ -4148,12 +4103,18 @@
         <v>0.2430844174283033</v>
       </c>
       <c r="M69">
+        <v>0.1162693052821844</v>
+      </c>
+      <c r="N69">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="O69">
         <v>-0.008449561675110902</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>0.001970331413253876</v>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -4203,12 +4164,18 @@
         <v>0.2430844174283033</v>
       </c>
       <c r="M70">
+        <v>0.1162693052821844</v>
+      </c>
+      <c r="N70">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="O70">
         <v>-0.008449561675110902</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>0.001970331413253876</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -4258,12 +4225,18 @@
         <v>0.2430844174283033</v>
       </c>
       <c r="M71">
+        <v>0.1162693052821844</v>
+      </c>
+      <c r="N71">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="O71">
         <v>-0.008449561675110902</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <v>0.001970331413253876</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -4313,12 +4286,18 @@
         <v>0.2430844174283033</v>
       </c>
       <c r="M72">
+        <v>0.1162693052821844</v>
+      </c>
+      <c r="N72">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="O72">
         <v>-0.008449561675110902</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <v>0.001970331413253876</v>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -4355,22 +4334,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J73">
-        <v>-0.003239615130928513</v>
-      </c>
-      <c r="K73">
-        <v>0.002658184836699952</v>
-      </c>
       <c r="L73">
         <v>0.2430844174283033</v>
       </c>
       <c r="M73">
-        <v>-0.008449561675110902</v>
+        <v>0.1162693052821844</v>
       </c>
       <c r="N73">
-        <v>0.001970331413253876</v>
-      </c>
-      <c r="O73" t="inlineStr">
+        <v>-0.02786302991203052</v>
+      </c>
+      <c r="Q73" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -4410,24 +4383,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J74">
-        <v>26.59195468323902</v>
-      </c>
-      <c r="K74">
-        <v>5.653354391314276</v>
-      </c>
       <c r="L74">
         <v>0.0004124172473842679</v>
       </c>
       <c r="M74">
-        <v>15.51158368442169</v>
+        <v>49.60449044177373</v>
       </c>
       <c r="N74">
-        <v>37.67232568205636</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4465,24 +4432,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J75">
-        <v>26.59195468323902</v>
-      </c>
-      <c r="K75">
-        <v>5.653354391314276</v>
-      </c>
       <c r="L75">
         <v>0.0004124172473842679</v>
       </c>
       <c r="M75">
-        <v>15.51158368442169</v>
+        <v>49.60449044177373</v>
       </c>
       <c r="N75">
-        <v>37.67232568205636</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4520,24 +4481,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J76">
-        <v>26.59195468323902</v>
-      </c>
-      <c r="K76">
-        <v>5.653354391314276</v>
-      </c>
       <c r="L76">
         <v>0.0004124172473842679</v>
       </c>
       <c r="M76">
-        <v>15.51158368442169</v>
+        <v>49.60449044177373</v>
       </c>
       <c r="N76">
-        <v>37.67232568205636</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4575,24 +4530,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J77">
-        <v>26.59195468323902</v>
-      </c>
-      <c r="K77">
-        <v>5.653354391314276</v>
-      </c>
       <c r="L77">
         <v>0.0004124172473842679</v>
       </c>
       <c r="M77">
-        <v>15.51158368442169</v>
+        <v>49.60449044177373</v>
       </c>
       <c r="N77">
-        <v>37.67232568205636</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4630,24 +4579,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J78">
-        <v>26.59195468323902</v>
-      </c>
-      <c r="K78">
-        <v>5.653354391314276</v>
-      </c>
       <c r="L78">
         <v>0.0004124172473842679</v>
       </c>
       <c r="M78">
-        <v>15.51158368442169</v>
+        <v>49.60449044177373</v>
       </c>
       <c r="N78">
-        <v>37.67232568205636</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4685,24 +4628,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J79">
-        <v>26.59195468323902</v>
-      </c>
-      <c r="K79">
-        <v>5.653354391314276</v>
-      </c>
       <c r="L79">
         <v>0.0004124172473842679</v>
       </c>
       <c r="M79">
-        <v>15.51158368442169</v>
+        <v>49.60449044177373</v>
       </c>
       <c r="N79">
-        <v>37.67232568205636</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4750,14 +4687,25 @@
         <v>0.0004124172473842679</v>
       </c>
       <c r="M80">
+        <v>49.60449044177373</v>
+      </c>
+      <c r="N80">
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="O80">
         <v>15.51158368442169</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>37.67232568205636</v>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>53.6%</t>
         </is>
       </c>
     </row>
@@ -4805,14 +4753,20 @@
         <v>0.0004124172473842679</v>
       </c>
       <c r="M81">
+        <v>49.60449044177373</v>
+      </c>
+      <c r="N81">
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="O81">
         <v>15.51158368442169</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <v>37.67232568205636</v>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4860,14 +4814,20 @@
         <v>0.0004124172473842679</v>
       </c>
       <c r="M82">
+        <v>49.60449044177373</v>
+      </c>
+      <c r="N82">
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="O82">
         <v>15.51158368442169</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>37.67232568205636</v>
       </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4915,14 +4875,20 @@
         <v>0.0004124172473842679</v>
       </c>
       <c r="M83">
+        <v>49.60449044177373</v>
+      </c>
+      <c r="N83">
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="O83">
         <v>15.51158368442169</v>
       </c>
-      <c r="N83">
+      <c r="P83">
         <v>37.67232568205636</v>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -4970,14 +4936,20 @@
         <v>0.0004124172473842679</v>
       </c>
       <c r="M84">
+        <v>49.60449044177373</v>
+      </c>
+      <c r="N84">
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="O84">
         <v>15.51158368442169</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <v>37.67232568205636</v>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5012,24 +4984,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J85">
-        <v>26.59195468323902</v>
-      </c>
-      <c r="K85">
-        <v>5.653354391314276</v>
-      </c>
       <c r="L85">
         <v>0.0004124172473842679</v>
       </c>
       <c r="M85">
-        <v>15.51158368442169</v>
+        <v>49.60449044177373</v>
       </c>
       <c r="N85">
-        <v>37.67232568205636</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Outpatient visits per 1000, aged &gt;= 5</t>
+        <v>0.5360795856668045</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Outpatient visits per 1000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5067,22 +5033,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J86">
-        <v>66.93549560982723</v>
-      </c>
-      <c r="K86">
-        <v>10.44538600963759</v>
-      </c>
       <c r="L86">
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M86">
-        <v>46.462915226319</v>
+        <v>163.5207060143358</v>
       </c>
       <c r="N86">
-        <v>87.40807599333546</v>
-      </c>
-      <c r="O86" t="inlineStr">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="Q86" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5122,22 +5082,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J87">
-        <v>66.93549560982723</v>
-      </c>
-      <c r="K87">
-        <v>10.44538600963759</v>
-      </c>
       <c r="L87">
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M87">
-        <v>46.462915226319</v>
+        <v>163.5207060143358</v>
       </c>
       <c r="N87">
-        <v>87.40807599333546</v>
-      </c>
-      <c r="O87" t="inlineStr">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="Q87" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5177,22 +5131,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J88">
-        <v>66.93549560982723</v>
-      </c>
-      <c r="K88">
-        <v>10.44538600963759</v>
-      </c>
       <c r="L88">
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M88">
-        <v>46.462915226319</v>
+        <v>163.5207060143358</v>
       </c>
       <c r="N88">
-        <v>87.40807599333546</v>
-      </c>
-      <c r="O88" t="inlineStr">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="Q88" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5232,22 +5180,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J89">
-        <v>66.93549560982723</v>
-      </c>
-      <c r="K89">
-        <v>10.44538600963759</v>
-      </c>
       <c r="L89">
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M89">
-        <v>46.462915226319</v>
+        <v>163.5207060143358</v>
       </c>
       <c r="N89">
-        <v>87.40807599333546</v>
-      </c>
-      <c r="O89" t="inlineStr">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="Q89" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5287,22 +5229,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J90">
-        <v>66.93549560982723</v>
-      </c>
-      <c r="K90">
-        <v>10.44538600963759</v>
-      </c>
       <c r="L90">
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M90">
-        <v>46.462915226319</v>
+        <v>163.5207060143358</v>
       </c>
       <c r="N90">
-        <v>87.40807599333546</v>
-      </c>
-      <c r="O90" t="inlineStr">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="Q90" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5342,22 +5278,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J91">
-        <v>66.93549560982723</v>
-      </c>
-      <c r="K91">
-        <v>10.44538600963759</v>
-      </c>
       <c r="L91">
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M91">
-        <v>46.462915226319</v>
+        <v>163.5207060143358</v>
       </c>
       <c r="N91">
-        <v>87.40807599333546</v>
-      </c>
-      <c r="O91" t="inlineStr">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="Q91" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5407,14 +5337,25 @@
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M92">
+        <v>163.5207060143358</v>
+      </c>
+      <c r="N92">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="O92">
         <v>46.462915226319</v>
       </c>
-      <c r="N92">
+      <c r="P92">
         <v>87.40807599333546</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>40.9%</t>
         </is>
       </c>
     </row>
@@ -5462,12 +5403,18 @@
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M93">
+        <v>163.5207060143358</v>
+      </c>
+      <c r="N93">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="O93">
         <v>46.462915226319</v>
       </c>
-      <c r="N93">
+      <c r="P93">
         <v>87.40807599333546</v>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5517,12 +5464,18 @@
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M94">
+        <v>163.5207060143358</v>
+      </c>
+      <c r="N94">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="O94">
         <v>46.462915226319</v>
       </c>
-      <c r="N94">
+      <c r="P94">
         <v>87.40807599333546</v>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5572,12 +5525,18 @@
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M95">
+        <v>163.5207060143358</v>
+      </c>
+      <c r="N95">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="O95">
         <v>46.462915226319</v>
       </c>
-      <c r="N95">
+      <c r="P95">
         <v>87.40807599333546</v>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5627,12 +5586,18 @@
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M96">
+        <v>163.5207060143358</v>
+      </c>
+      <c r="N96">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="O96">
         <v>46.462915226319</v>
       </c>
-      <c r="N96">
+      <c r="P96">
         <v>87.40807599333546</v>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5669,22 +5634,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J97">
-        <v>66.93549560982723</v>
-      </c>
-      <c r="K97">
-        <v>10.44538600963759</v>
-      </c>
       <c r="L97">
         <v>2.313569100923857E-05</v>
       </c>
       <c r="M97">
-        <v>46.462915226319</v>
+        <v>163.5207060143358</v>
       </c>
       <c r="N97">
-        <v>87.40807599333546</v>
-      </c>
-      <c r="O97" t="inlineStr">
+        <v>0.4093395707572288</v>
+      </c>
+      <c r="Q97" t="inlineStr">
         <is>
           <t>Outpatient visits per 1000, aged &lt; 5</t>
         </is>
@@ -5724,24 +5683,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J98">
-        <v>163.695130328707</v>
-      </c>
-      <c r="K98">
-        <v>84.03333363228036</v>
-      </c>
       <c r="L98">
         <v>0.07334001201710363</v>
       </c>
       <c r="M98">
-        <v>-1.007177091400933</v>
+        <v>626.8759226731843</v>
       </c>
       <c r="N98">
-        <v>328.3974377488149</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5779,24 +5732,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J99">
-        <v>163.695130328707</v>
-      </c>
-      <c r="K99">
-        <v>84.03333363228036</v>
-      </c>
       <c r="L99">
         <v>0.07334001201710363</v>
       </c>
       <c r="M99">
-        <v>-1.007177091400933</v>
+        <v>626.8759226731843</v>
       </c>
       <c r="N99">
-        <v>328.3974377488149</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5834,24 +5781,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J100">
-        <v>163.695130328707</v>
-      </c>
-      <c r="K100">
-        <v>84.03333363228036</v>
-      </c>
       <c r="L100">
         <v>0.07334001201710363</v>
       </c>
       <c r="M100">
-        <v>-1.007177091400933</v>
+        <v>626.8759226731843</v>
       </c>
       <c r="N100">
-        <v>328.3974377488149</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5889,24 +5830,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J101">
-        <v>163.695130328707</v>
-      </c>
-      <c r="K101">
-        <v>84.03333363228036</v>
-      </c>
       <c r="L101">
         <v>0.07334001201710363</v>
       </c>
       <c r="M101">
-        <v>-1.007177091400933</v>
+        <v>626.8759226731843</v>
       </c>
       <c r="N101">
-        <v>328.3974377488149</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5944,24 +5879,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J102">
-        <v>163.695130328707</v>
-      </c>
-      <c r="K102">
-        <v>84.03333363228036</v>
-      </c>
       <c r="L102">
         <v>0.07334001201710363</v>
       </c>
       <c r="M102">
-        <v>-1.007177091400933</v>
+        <v>626.8759226731843</v>
       </c>
       <c r="N102">
-        <v>328.3974377488149</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -5999,24 +5928,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J103">
-        <v>163.695130328707</v>
-      </c>
-      <c r="K103">
-        <v>84.03333363228036</v>
-      </c>
       <c r="L103">
         <v>0.07334001201710363</v>
       </c>
       <c r="M103">
-        <v>-1.007177091400933</v>
+        <v>626.8759226731843</v>
       </c>
       <c r="N103">
-        <v>328.3974377488149</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6064,14 +5987,25 @@
         <v>0.07334001201710363</v>
       </c>
       <c r="M104">
+        <v>626.8759226731843</v>
+      </c>
+      <c r="N104">
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="O104">
         <v>-1.007177091400933</v>
       </c>
-      <c r="N104">
+      <c r="P104">
         <v>328.3974377488149</v>
       </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>26.1%</t>
         </is>
       </c>
     </row>
@@ -6119,14 +6053,20 @@
         <v>0.07334001201710363</v>
       </c>
       <c r="M105">
+        <v>626.8759226731843</v>
+      </c>
+      <c r="N105">
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="O105">
         <v>-1.007177091400933</v>
       </c>
-      <c r="N105">
+      <c r="P105">
         <v>328.3974377488149</v>
       </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6174,14 +6114,20 @@
         <v>0.07334001201710363</v>
       </c>
       <c r="M106">
+        <v>626.8759226731843</v>
+      </c>
+      <c r="N106">
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="O106">
         <v>-1.007177091400933</v>
       </c>
-      <c r="N106">
+      <c r="P106">
         <v>328.3974377488149</v>
       </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6229,14 +6175,20 @@
         <v>0.07334001201710363</v>
       </c>
       <c r="M107">
+        <v>626.8759226731843</v>
+      </c>
+      <c r="N107">
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="O107">
         <v>-1.007177091400933</v>
       </c>
-      <c r="N107">
+      <c r="P107">
         <v>328.3974377488149</v>
       </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6284,14 +6236,20 @@
         <v>0.07334001201710363</v>
       </c>
       <c r="M108">
+        <v>626.8759226731843</v>
+      </c>
+      <c r="N108">
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="O108">
         <v>-1.007177091400933</v>
       </c>
-      <c r="N108">
+      <c r="P108">
         <v>328.3974377488149</v>
       </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6326,24 +6284,18 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J109">
-        <v>163.695130328707</v>
-      </c>
-      <c r="K109">
-        <v>84.03333363228036</v>
-      </c>
       <c r="L109">
         <v>0.07334001201710363</v>
       </c>
       <c r="M109">
-        <v>-1.007177091400933</v>
+        <v>626.8759226731843</v>
       </c>
       <c r="N109">
-        <v>328.3974377488149</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>Inpatient admissions per 100 000, aged &gt;= 5</t>
+        <v>0.2611284377148552</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Inpatient admissions per 100 000, aged ≥ 5</t>
         </is>
       </c>
     </row>
@@ -6381,22 +6333,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J110">
-        <v>372.2002270111249</v>
-      </c>
-      <c r="K110">
-        <v>238.7427455708661</v>
-      </c>
       <c r="L110">
         <v>0.1430002022620985</v>
       </c>
       <c r="M110">
-        <v>-95.72695587798205</v>
+        <v>1809.129438717755</v>
       </c>
       <c r="N110">
-        <v>840.1274099002318</v>
-      </c>
-      <c r="O110" t="inlineStr">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="Q110" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6436,22 +6382,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J111">
-        <v>372.2002270111249</v>
-      </c>
-      <c r="K111">
-        <v>238.7427455708661</v>
-      </c>
       <c r="L111">
         <v>0.1430002022620985</v>
       </c>
       <c r="M111">
-        <v>-95.72695587798205</v>
+        <v>1809.129438717755</v>
       </c>
       <c r="N111">
-        <v>840.1274099002318</v>
-      </c>
-      <c r="O111" t="inlineStr">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="Q111" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6491,22 +6431,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J112">
-        <v>372.2002270111249</v>
-      </c>
-      <c r="K112">
-        <v>238.7427455708661</v>
-      </c>
       <c r="L112">
         <v>0.1430002022620985</v>
       </c>
       <c r="M112">
-        <v>-95.72695587798205</v>
+        <v>1809.129438717755</v>
       </c>
       <c r="N112">
-        <v>840.1274099002318</v>
-      </c>
-      <c r="O112" t="inlineStr">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="Q112" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6546,22 +6480,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J113">
-        <v>372.2002270111249</v>
-      </c>
-      <c r="K113">
-        <v>238.7427455708661</v>
-      </c>
       <c r="L113">
         <v>0.1430002022620985</v>
       </c>
       <c r="M113">
-        <v>-95.72695587798205</v>
+        <v>1809.129438717755</v>
       </c>
       <c r="N113">
-        <v>840.1274099002318</v>
-      </c>
-      <c r="O113" t="inlineStr">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="Q113" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6601,22 +6529,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J114">
-        <v>372.2002270111249</v>
-      </c>
-      <c r="K114">
-        <v>238.7427455708661</v>
-      </c>
       <c r="L114">
         <v>0.1430002022620985</v>
       </c>
       <c r="M114">
-        <v>-95.72695587798205</v>
+        <v>1809.129438717755</v>
       </c>
       <c r="N114">
-        <v>840.1274099002318</v>
-      </c>
-      <c r="O114" t="inlineStr">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="Q114" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6656,22 +6578,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J115">
-        <v>372.2002270111249</v>
-      </c>
-      <c r="K115">
-        <v>238.7427455708661</v>
-      </c>
       <c r="L115">
         <v>0.1430002022620985</v>
       </c>
       <c r="M115">
-        <v>-95.72695587798205</v>
+        <v>1809.129438717755</v>
       </c>
       <c r="N115">
-        <v>840.1274099002318</v>
-      </c>
-      <c r="O115" t="inlineStr">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="Q115" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6721,14 +6637,25 @@
         <v>0.1430002022620985</v>
       </c>
       <c r="M116">
+        <v>1809.129438717755</v>
+      </c>
+      <c r="N116">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="O116">
         <v>-95.72695587798205</v>
       </c>
-      <c r="N116">
+      <c r="P116">
         <v>840.1274099002318</v>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>20.6%</t>
         </is>
       </c>
     </row>
@@ -6776,12 +6703,18 @@
         <v>0.1430002022620985</v>
       </c>
       <c r="M117">
+        <v>1809.129438717755</v>
+      </c>
+      <c r="N117">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="O117">
         <v>-95.72695587798205</v>
       </c>
-      <c r="N117">
+      <c r="P117">
         <v>840.1274099002318</v>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6831,12 +6764,18 @@
         <v>0.1430002022620985</v>
       </c>
       <c r="M118">
+        <v>1809.129438717755</v>
+      </c>
+      <c r="N118">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="O118">
         <v>-95.72695587798205</v>
       </c>
-      <c r="N118">
+      <c r="P118">
         <v>840.1274099002318</v>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6886,12 +6825,18 @@
         <v>0.1430002022620985</v>
       </c>
       <c r="M119">
+        <v>1809.129438717755</v>
+      </c>
+      <c r="N119">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="O119">
         <v>-95.72695587798205</v>
       </c>
-      <c r="N119">
+      <c r="P119">
         <v>840.1274099002318</v>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6941,12 +6886,18 @@
         <v>0.1430002022620985</v>
       </c>
       <c r="M120">
+        <v>1809.129438717755</v>
+      </c>
+      <c r="N120">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="O120">
         <v>-95.72695587798205</v>
       </c>
-      <c r="N120">
+      <c r="P120">
         <v>840.1274099002318</v>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -6983,22 +6934,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J121">
-        <v>372.2002270111249</v>
-      </c>
-      <c r="K121">
-        <v>238.7427455708661</v>
-      </c>
       <c r="L121">
         <v>0.1430002022620985</v>
       </c>
       <c r="M121">
-        <v>-95.72695587798205</v>
+        <v>1809.129438717755</v>
       </c>
       <c r="N121">
-        <v>840.1274099002318</v>
-      </c>
-      <c r="O121" t="inlineStr">
+        <v>0.2057344372633319</v>
+      </c>
+      <c r="Q121" t="inlineStr">
         <is>
           <t>Inpatient admissions per 100 000, aged &lt; 5</t>
         </is>
@@ -7038,22 +6983,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J122">
-        <v>-0.06813584723535698</v>
-      </c>
-      <c r="K122">
-        <v>0.120943334739861</v>
-      </c>
       <c r="L122">
         <v>0.5827703330790956</v>
       </c>
       <c r="M122">
-        <v>-0.3051804274956565</v>
+        <v>2.674250666058681</v>
       </c>
       <c r="N122">
-        <v>0.1689087330249425</v>
-      </c>
-      <c r="O122" t="inlineStr">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="Q122" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7093,22 +7032,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J123">
-        <v>-0.06813584723535698</v>
-      </c>
-      <c r="K123">
-        <v>0.120943334739861</v>
-      </c>
       <c r="L123">
         <v>0.5827703330790956</v>
       </c>
       <c r="M123">
-        <v>-0.3051804274956565</v>
+        <v>2.674250666058681</v>
       </c>
       <c r="N123">
-        <v>0.1689087330249425</v>
-      </c>
-      <c r="O123" t="inlineStr">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="Q123" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7148,22 +7081,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J124">
-        <v>-0.06813584723535698</v>
-      </c>
-      <c r="K124">
-        <v>0.120943334739861</v>
-      </c>
       <c r="L124">
         <v>0.5827703330790956</v>
       </c>
       <c r="M124">
-        <v>-0.3051804274956565</v>
+        <v>2.674250666058681</v>
       </c>
       <c r="N124">
-        <v>0.1689087330249425</v>
-      </c>
-      <c r="O124" t="inlineStr">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="Q124" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7203,22 +7130,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J125">
-        <v>-0.06813584723535698</v>
-      </c>
-      <c r="K125">
-        <v>0.120943334739861</v>
-      </c>
       <c r="L125">
         <v>0.5827703330790956</v>
       </c>
       <c r="M125">
-        <v>-0.3051804274956565</v>
+        <v>2.674250666058681</v>
       </c>
       <c r="N125">
-        <v>0.1689087330249425</v>
-      </c>
-      <c r="O125" t="inlineStr">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="Q125" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7258,22 +7179,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J126">
-        <v>-0.06813584723535698</v>
-      </c>
-      <c r="K126">
-        <v>0.120943334739861</v>
-      </c>
       <c r="L126">
         <v>0.5827703330790956</v>
       </c>
       <c r="M126">
-        <v>-0.3051804274956565</v>
+        <v>2.674250666058681</v>
       </c>
       <c r="N126">
-        <v>0.1689087330249425</v>
-      </c>
-      <c r="O126" t="inlineStr">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="Q126" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7313,22 +7228,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J127">
-        <v>-0.06813584723535698</v>
-      </c>
-      <c r="K127">
-        <v>0.120943334739861</v>
-      </c>
       <c r="L127">
         <v>0.5827703330790956</v>
       </c>
       <c r="M127">
-        <v>-0.3051804274956565</v>
+        <v>2.674250666058681</v>
       </c>
       <c r="N127">
-        <v>0.1689087330249425</v>
-      </c>
-      <c r="O127" t="inlineStr">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="Q127" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7378,14 +7287,25 @@
         <v>0.5827703330790956</v>
       </c>
       <c r="M128">
+        <v>2.674250666058681</v>
+      </c>
+      <c r="N128">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="O128">
         <v>-0.3051804274956565</v>
       </c>
-      <c r="N128">
+      <c r="P128">
         <v>0.1689087330249425</v>
       </c>
-      <c r="O128" t="inlineStr">
+      <c r="Q128" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
         </is>
       </c>
     </row>
@@ -7433,12 +7353,18 @@
         <v>0.5827703330790956</v>
       </c>
       <c r="M129">
+        <v>2.674250666058681</v>
+      </c>
+      <c r="N129">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="O129">
         <v>-0.3051804274956565</v>
       </c>
-      <c r="N129">
+      <c r="P129">
         <v>0.1689087330249425</v>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="Q129" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7488,12 +7414,18 @@
         <v>0.5827703330790956</v>
       </c>
       <c r="M130">
+        <v>2.674250666058681</v>
+      </c>
+      <c r="N130">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="O130">
         <v>-0.3051804274956565</v>
       </c>
-      <c r="N130">
+      <c r="P130">
         <v>0.1689087330249425</v>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="Q130" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7543,12 +7475,18 @@
         <v>0.5827703330790956</v>
       </c>
       <c r="M131">
+        <v>2.674250666058681</v>
+      </c>
+      <c r="N131">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="O131">
         <v>-0.3051804274956565</v>
       </c>
-      <c r="N131">
+      <c r="P131">
         <v>0.1689087330249425</v>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="Q131" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7598,12 +7536,18 @@
         <v>0.5827703330790956</v>
       </c>
       <c r="M132">
+        <v>2.674250666058681</v>
+      </c>
+      <c r="N132">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="O132">
         <v>-0.3051804274956565</v>
       </c>
-      <c r="N132">
+      <c r="P132">
         <v>0.1689087330249425</v>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="Q132" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7640,22 +7584,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J133">
-        <v>-0.06813584723535698</v>
-      </c>
-      <c r="K133">
-        <v>0.120943334739861</v>
-      </c>
       <c r="L133">
         <v>0.5827703330790956</v>
       </c>
       <c r="M133">
-        <v>-0.3051804274956565</v>
+        <v>2.674250666058681</v>
       </c>
       <c r="N133">
-        <v>0.1689087330249425</v>
-      </c>
-      <c r="O133" t="inlineStr">
+        <v>-0.0254784819164973</v>
+      </c>
+      <c r="Q133" t="inlineStr">
         <is>
           <t>Inpatient average length of stay</t>
         </is>
@@ -7695,22 +7633,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J134">
-        <v>0.0008210192530534375</v>
-      </c>
-      <c r="K134">
-        <v>0.002498143107239528</v>
-      </c>
       <c r="L134">
         <v>0.7476528651938639</v>
       </c>
       <c r="M134">
-        <v>-0.004075251265363017</v>
+        <v>0.07868230026154793</v>
       </c>
       <c r="N134">
-        <v>0.005717289771469893</v>
-      </c>
-      <c r="O134" t="inlineStr">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="Q134" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -7750,22 +7682,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J135">
-        <v>0.0008210192530534375</v>
-      </c>
-      <c r="K135">
-        <v>0.002498143107239528</v>
-      </c>
       <c r="L135">
         <v>0.7476528651938639</v>
       </c>
       <c r="M135">
-        <v>-0.004075251265363017</v>
+        <v>0.07868230026154793</v>
       </c>
       <c r="N135">
-        <v>0.005717289771469893</v>
-      </c>
-      <c r="O135" t="inlineStr">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="Q135" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -7805,22 +7731,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J136">
-        <v>0.0008210192530534375</v>
-      </c>
-      <c r="K136">
-        <v>0.002498143107239528</v>
-      </c>
       <c r="L136">
         <v>0.7476528651938639</v>
       </c>
       <c r="M136">
-        <v>-0.004075251265363017</v>
+        <v>0.07868230026154793</v>
       </c>
       <c r="N136">
-        <v>0.005717289771469893</v>
-      </c>
-      <c r="O136" t="inlineStr">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="Q136" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -7860,22 +7780,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J137">
-        <v>0.0008210192530534375</v>
-      </c>
-      <c r="K137">
-        <v>0.002498143107239528</v>
-      </c>
       <c r="L137">
         <v>0.7476528651938639</v>
       </c>
       <c r="M137">
-        <v>-0.004075251265363017</v>
+        <v>0.07868230026154793</v>
       </c>
       <c r="N137">
-        <v>0.005717289771469893</v>
-      </c>
-      <c r="O137" t="inlineStr">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="Q137" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -7915,22 +7829,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J138">
-        <v>0.0008210192530534375</v>
-      </c>
-      <c r="K138">
-        <v>0.002498143107239528</v>
-      </c>
       <c r="L138">
         <v>0.7476528651938639</v>
       </c>
       <c r="M138">
-        <v>-0.004075251265363017</v>
+        <v>0.07868230026154793</v>
       </c>
       <c r="N138">
-        <v>0.005717289771469893</v>
-      </c>
-      <c r="O138" t="inlineStr">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="Q138" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -7970,22 +7878,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J139">
-        <v>0.0008210192530534375</v>
-      </c>
-      <c r="K139">
-        <v>0.002498143107239528</v>
-      </c>
       <c r="L139">
         <v>0.7476528651938639</v>
       </c>
       <c r="M139">
-        <v>-0.004075251265363017</v>
+        <v>0.07868230026154793</v>
       </c>
       <c r="N139">
-        <v>0.005717289771469893</v>
-      </c>
-      <c r="O139" t="inlineStr">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="Q139" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -8035,14 +7937,25 @@
         <v>0.7476528651938639</v>
       </c>
       <c r="M140">
+        <v>0.07868230026154793</v>
+      </c>
+      <c r="N140">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="O140">
         <v>-0.004075251265363017</v>
       </c>
-      <c r="N140">
+      <c r="P140">
         <v>0.005717289771469893</v>
       </c>
-      <c r="O140" t="inlineStr">
+      <c r="Q140" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -8090,12 +8003,18 @@
         <v>0.7476528651938639</v>
       </c>
       <c r="M141">
+        <v>0.07868230026154793</v>
+      </c>
+      <c r="N141">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="O141">
         <v>-0.004075251265363017</v>
       </c>
-      <c r="N141">
+      <c r="P141">
         <v>0.005717289771469893</v>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="Q141" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -8145,12 +8064,18 @@
         <v>0.7476528651938639</v>
       </c>
       <c r="M142">
+        <v>0.07868230026154793</v>
+      </c>
+      <c r="N142">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="O142">
         <v>-0.004075251265363017</v>
       </c>
-      <c r="N142">
+      <c r="P142">
         <v>0.005717289771469893</v>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="Q142" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -8200,12 +8125,18 @@
         <v>0.7476528651938639</v>
       </c>
       <c r="M143">
+        <v>0.07868230026154793</v>
+      </c>
+      <c r="N143">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="O143">
         <v>-0.004075251265363017</v>
       </c>
-      <c r="N143">
+      <c r="P143">
         <v>0.005717289771469893</v>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="Q143" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -8255,12 +8186,18 @@
         <v>0.7476528651938639</v>
       </c>
       <c r="M144">
+        <v>0.07868230026154793</v>
+      </c>
+      <c r="N144">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="O144">
         <v>-0.004075251265363017</v>
       </c>
-      <c r="N144">
+      <c r="P144">
         <v>0.005717289771469893</v>
       </c>
-      <c r="O144" t="inlineStr">
+      <c r="Q144" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
@@ -8297,22 +8234,16 @@
           <t>ATT</t>
         </is>
       </c>
-      <c r="J145">
-        <v>0.0008210192530534375</v>
-      </c>
-      <c r="K145">
-        <v>0.002498143107239528</v>
-      </c>
       <c r="L145">
         <v>0.7476528651938639</v>
       </c>
       <c r="M145">
-        <v>-0.004075251265363017</v>
+        <v>0.07868230026154793</v>
       </c>
       <c r="N145">
-        <v>0.005717289771469893</v>
-      </c>
-      <c r="O145" t="inlineStr">
+        <v>0.01043461172746966</v>
+      </c>
+      <c r="Q145" t="inlineStr">
         <is>
           <t>Institutional birth rate</t>
         </is>
